--- a/json/Waypoints.xlsx
+++ b/json/Waypoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Studienarbeit\github\Studienarbeit\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D99E97D-C959-45A2-B10A-1289795FAAE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527823C-EA34-4D08-B9BA-B7B10815EA54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17670" yWindow="2895" windowWidth="21600" windowHeight="9660" xr2:uid="{4FEAF9F3-BCCC-4F6E-9441-BBD9A8CDFF42}"/>
+    <workbookView xWindow="-23850" yWindow="2145" windowWidth="18645" windowHeight="9660" xr2:uid="{4FEAF9F3-BCCC-4F6E-9441-BBD9A8CDFF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -42,54 +42,6 @@
     <t>lon</t>
   </si>
   <si>
-    <t>54.32593450423723</t>
-  </si>
-  <si>
-    <t>10.132312774658205</t>
-  </si>
-  <si>
-    <t>54.323564509119166</t>
-  </si>
-  <si>
-    <t>10.154267770858079</t>
-  </si>
-  <si>
-    <t>54.32483022716341</t>
-  </si>
-  <si>
-    <t>10.163830913567132</t>
-  </si>
-  <si>
-    <t>54.31876101047647</t>
-  </si>
-  <si>
-    <t>10.16351922920498</t>
-  </si>
-  <si>
-    <t>54.3155362532566</t>
-  </si>
-  <si>
-    <t>10.155346193531813</t>
-  </si>
-  <si>
-    <t>54.31118283100978</t>
-  </si>
-  <si>
-    <t>10.144312595373037</t>
-  </si>
-  <si>
-    <t>54.31486886706441</t>
-  </si>
-  <si>
-    <t>10.12679752973752</t>
-  </si>
-  <si>
-    <t>54.31927680322572</t>
-  </si>
-  <si>
-    <t>10.126227811268434</t>
-  </si>
-  <si>
     <t>Echo</t>
   </si>
   <si>
@@ -121,16 +73,149 @@
   </si>
   <si>
     <t>WP 8</t>
+  </si>
+  <si>
+    <t>54.31584827108439</t>
+  </si>
+  <si>
+    <t>10.123094868378038</t>
+  </si>
+  <si>
+    <t>54.325918030226894</t>
+  </si>
+  <si>
+    <t>10.132367607350169</t>
+  </si>
+  <si>
+    <t>54.32086854381849</t>
+  </si>
+  <si>
+    <t>10.149301226874874</t>
+  </si>
+  <si>
+    <t>54.326799251891785</t>
+  </si>
+  <si>
+    <t>10.160317250781889</t>
+  </si>
+  <si>
+    <t>54.32132066151974</t>
+  </si>
+  <si>
+    <t>10.170006576270556</t>
+  </si>
+  <si>
+    <t>54.3107336306193</t>
+  </si>
+  <si>
+    <t>10.143081181039111</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>54.317600487071715</t>
+  </si>
+  <si>
+    <t>10.135124093389393</t>
+  </si>
+  <si>
+    <t>54.31834602211088</t>
+  </si>
+  <si>
+    <t>10.142022044578779</t>
+  </si>
+  <si>
+    <t>54.313529933723196</t>
+  </si>
+  <si>
+    <t>10.139121235557626</t>
+  </si>
+  <si>
+    <t>54.310388259365084</t>
+  </si>
+  <si>
+    <t>10.13376994336906</t>
+  </si>
+  <si>
+    <t>54.31120798731821</t>
+  </si>
+  <si>
+    <t>10.131485573097102</t>
+  </si>
+  <si>
+    <t>Yankee</t>
+  </si>
+  <si>
+    <t>54.29511603843219</t>
+  </si>
+  <si>
+    <t>10.085574053812703</t>
+  </si>
+  <si>
+    <t>54.30413205223537</t>
+  </si>
+  <si>
+    <t>10.095782678587337</t>
+  </si>
+  <si>
+    <t>54.305741023290274</t>
+  </si>
+  <si>
+    <t>10.105357694383294</t>
+  </si>
+  <si>
+    <t>54.30158519904467</t>
+  </si>
+  <si>
+    <t>10.108049263557369</t>
+  </si>
+  <si>
+    <t>54.29582151025235</t>
+  </si>
+  <si>
+    <t>10.10496257134204</t>
+  </si>
+  <si>
+    <t>54.291892234473444</t>
+  </si>
+  <si>
+    <t>10.105480746074463</t>
+  </si>
+  <si>
+    <t>54.29184180353255</t>
+  </si>
+  <si>
+    <t>10.077743636833036</t>
+  </si>
+  <si>
+    <t>54.295237887486884</t>
+  </si>
+  <si>
+    <t>10.07771560153088</t>
+  </si>
+  <si>
+    <t>reset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,9 +241,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,15 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E91D48D-0F13-4E29-96A9-5837B0835CE4}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,231 +583,464 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
